--- a/HT1080-GOT-DKO_characterization/HT1080-DKO-Intracellular-Extracellular-Asp-Titration/HT1080_IntraExtraAspTitr_Prolif_Merged.xlsx
+++ b/HT1080-GOT-DKO_characterization/HT1080-DKO-Intracellular-Extracellular-Asp-Titration/HT1080_IntraExtraAspTitr_Prolif_Merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Desktop/HT1080-DKO-Intracellular-Extracellular-Asp-Titration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/HT1080-GOT-DKO_characterization/HT1080-DKO-Intracellular-Extracellular-Asp-Titration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1398156F-8EDB-8249-BD58-372EF799122C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180D61B-71A1-DE4B-AE6F-3DEEBA9C4568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="1560" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="138">
   <si>
     <t>Sample ID</t>
   </si>
@@ -433,6 +433,18 @@
   </si>
   <si>
     <t>Cell_vol_stdev</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>Vec</t>
+  </si>
+  <si>
+    <t>Cell size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -441,8 +453,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -516,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -525,13 +537,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,6 +560,2174 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$113:$L$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$113:$M$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1852718491343506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0254265226996797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91870792525183431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75505459052416501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62888447354536858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48651537419239177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3998247008089737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13F1-7D4E-8057-F39C8A5C1737}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$113:$L$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$113:$N$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0098047763029492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0155236038593236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99786931211864449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92856129406691945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94105342966996908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87246651243586049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93618466286226487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73839841677069395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13F1-7D4E-8057-F39C8A5C1737}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1637597952"/>
+        <c:axId val="1637243280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1637597952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637243280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1637243280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.25"/>
+          <c:min val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637597952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$129</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$130:$L$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$130:$M$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3157.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3031.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2875.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3295.6666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D804-3242-9F21-89249FE62918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$129</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$130:$L$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$130:$N$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3126.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3001.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3042.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2690.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2604.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2376.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D804-3242-9F21-89249FE62918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1638881648"/>
+        <c:axId val="1638436560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1638881648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638436560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1638436560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638881648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441615</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>21070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>496456</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>137679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EEC1D6-6F27-F73C-85E8-737264962D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441614</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>64366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>496455</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBF4972-85DF-6676-2A3D-EF00DABC4DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+    <sheetView tabSelected="1" topLeftCell="E104" zoomScale="88" workbookViewId="0">
+      <selection activeCell="Q133" sqref="Q133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1372,7 +3553,7 @@
         <v>2.9951388888875954</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" ref="O12:O13" si="0">J12/$J$8</f>
+        <f t="shared" ref="O12" si="0">J12/$J$8</f>
         <v>12.365371854422948</v>
       </c>
       <c r="P12" s="5">
@@ -1539,6 +3720,10 @@
         <f>AVERAGE(T11:T13)</f>
         <v>406.17881510877334</v>
       </c>
+      <c r="Y14" s="5">
+        <f>AVERAGE(Y11:Y13)</f>
+        <v>1.1852718491343506</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1695,7 +3880,7 @@
         <v>3.015277777776646</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" ref="O18:O19" si="2">J18/$J$8</f>
+        <f t="shared" ref="O18" si="2">J18/$J$8</f>
         <v>8.6228370169976003</v>
       </c>
       <c r="P18" s="5">
@@ -1864,6 +4049,10 @@
         <f>AVERAGE(T17:T19)</f>
         <v>575.68396062931595</v>
       </c>
+      <c r="Y20" s="5">
+        <f>AVERAGE(Y17:Y19)</f>
+        <v>1.0098047763029492</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2020,7 +4209,7 @@
         <v>3.0298611111065838</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" ref="O24:O25" si="4">J24/$J$8</f>
+        <f t="shared" ref="O24" si="4">J24/$J$8</f>
         <v>9.2215813383696599</v>
       </c>
       <c r="P24" s="5">
@@ -2189,6 +4378,10 @@
         <f>AVERAGE(T23:T25)</f>
         <v>563.57735373716412</v>
       </c>
+      <c r="Y26" s="5">
+        <f>AVERAGE(Y23:Y25)</f>
+        <v>1.0254265226996797</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2345,7 +4538,7 @@
         <v>3.0437499999970896</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" ref="O30:O31" si="6">J30/$J$8</f>
+        <f t="shared" ref="O30" si="6">J30/$J$8</f>
         <v>8.373232606809248</v>
       </c>
       <c r="P30" s="5">
@@ -2514,6 +4707,10 @@
         <f>AVERAGE(T29:T31)</f>
         <v>574.92963818080193</v>
       </c>
+      <c r="Y32" s="5">
+        <f>AVERAGE(Y29:Y31)</f>
+        <v>1.0155236038593236</v>
+      </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2670,7 +4867,7 @@
         <v>3.0569444444408873</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" ref="O36:O37" si="8">J36/$J$8</f>
+        <f t="shared" ref="O36" si="8">J36/$J$8</f>
         <v>6.8036343218824964</v>
       </c>
       <c r="P36" s="5">
@@ -2839,6 +5036,10 @@
         <f>AVERAGE(T35:T37)</f>
         <v>656.90746327600993</v>
       </c>
+      <c r="Y38" s="5">
+        <f>AVERAGE(Y35:Y37)</f>
+        <v>0.91870792525183431</v>
+      </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -2995,7 +5196,7 @@
         <v>3.0694444444379769</v>
       </c>
       <c r="O42" s="6">
-        <f t="shared" ref="O42:O43" si="10">J42/$J$8</f>
+        <f t="shared" ref="O42" si="10">J42/$J$8</f>
         <v>8.7208412025930269</v>
       </c>
       <c r="P42" s="5">
@@ -3164,6 +5365,10 @@
         <f>AVERAGE(T41:T43)</f>
         <v>611.29595945908704</v>
       </c>
+      <c r="Y44" s="5">
+        <f>AVERAGE(Y41:Y43)</f>
+        <v>0.99786931211864449</v>
+      </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -3319,7 +5524,7 @@
         <v>5.1520833333270275</v>
       </c>
       <c r="O48" s="6">
-        <f t="shared" ref="O48:O49" si="12">J48/$J$8</f>
+        <f t="shared" ref="O48" si="12">J48/$J$8</f>
         <v>14.688377316114542</v>
       </c>
       <c r="P48" s="5">
@@ -3486,6 +5691,10 @@
         <f>AVERAGE(T47:T49)</f>
         <v>341.20000620645743</v>
       </c>
+      <c r="Y50" s="5">
+        <f>AVERAGE(Y47:Y49)</f>
+        <v>0.75505459052416501</v>
+      </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -3641,7 +5850,7 @@
         <v>3.0826388888890506</v>
       </c>
       <c r="O54" s="6">
-        <f t="shared" ref="O54:O55" si="14">J54/$J$8</f>
+        <f t="shared" ref="O54" si="14">J54/$J$8</f>
         <v>7.9842784952274002</v>
       </c>
       <c r="P54" s="5">
@@ -3808,6 +6017,10 @@
         <f>AVERAGE(T53:T55)</f>
         <v>694.87200506481383</v>
       </c>
+      <c r="Y56" s="5">
+        <f>AVERAGE(Y53:Y55)</f>
+        <v>0.92856129406691945</v>
+      </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -3963,7 +6176,7 @@
         <v>5.8465277777722804</v>
       </c>
       <c r="O60" s="6">
-        <f t="shared" ref="O60:O61" si="16">J60/$J$8</f>
+        <f t="shared" ref="O60" si="16">J60/$J$8</f>
         <v>13.043744576591292</v>
       </c>
       <c r="P60" s="5">
@@ -4130,6 +6343,10 @@
         <f>AVERAGE(T59:T61)</f>
         <v>416.53086766109692</v>
       </c>
+      <c r="Y62" s="5">
+        <f>AVERAGE(Y59:Y61)</f>
+        <v>0.62888447354536858</v>
+      </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -4285,7 +6502,7 @@
         <v>5.1680555555503815</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" ref="O66:O67" si="18">J66/$J$8</f>
+        <f t="shared" ref="O66" si="18">J66/$J$8</f>
         <v>30.166913378592209</v>
       </c>
       <c r="P66" s="5">
@@ -4452,6 +6669,10 @@
         <f>AVERAGE(T65:T67)</f>
         <v>195.68252440541025</v>
       </c>
+      <c r="Y68" s="5">
+        <f>AVERAGE(Y65:Y67)</f>
+        <v>0.94105342966996908</v>
+      </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -4607,7 +6828,7 @@
         <v>6.9715277777722804</v>
       </c>
       <c r="O72" s="6">
-        <f t="shared" ref="O72:O73" si="20">J72/$J$8</f>
+        <f t="shared" ref="O72" si="20">J72/$J$8</f>
         <v>9.7621356745444334</v>
       </c>
       <c r="P72" s="5">
@@ -4774,6 +6995,10 @@
         <f>AVERAGE(T71:T73)</f>
         <v>472.81884756787684</v>
       </c>
+      <c r="Y74" s="5">
+        <f>AVERAGE(Y71:Y73)</f>
+        <v>0.48651537419239177</v>
+      </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -4929,7 +7154,7 @@
         <v>5.1805555555620231</v>
       </c>
       <c r="O78" s="6">
-        <f t="shared" ref="O78:O79" si="22">J78/$J$8</f>
+        <f t="shared" ref="O78" si="22">J78/$J$8</f>
         <v>23.965086008881627</v>
       </c>
       <c r="P78" s="5">
@@ -5096,6 +7321,10 @@
         <f>AVERAGE(T77:T79)</f>
         <v>256.45511302449216</v>
       </c>
+      <c r="Y80" s="5">
+        <f>AVERAGE(Y77:Y79)</f>
+        <v>0.87246651243586049</v>
+      </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -5251,7 +7480,7 @@
         <v>10.09652777777228</v>
       </c>
       <c r="O84" s="6">
-        <f t="shared" ref="O84:O85" si="24">J84/$J$8</f>
+        <f t="shared" ref="O84" si="24">J84/$J$8</f>
         <v>15.034454596498392</v>
       </c>
       <c r="P84" s="5">
@@ -5418,6 +7647,10 @@
         <f>AVERAGE(T83:T85)</f>
         <v>283.37435331801089</v>
       </c>
+      <c r="Y86" s="5">
+        <f>AVERAGE(Y83:Y85)</f>
+        <v>0.3998247008089737</v>
+      </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -5573,7 +7806,7 @@
         <v>5.1958333333313931</v>
       </c>
       <c r="O90" s="6">
-        <f t="shared" ref="O90:O91" si="26">J90/$J$8</f>
+        <f t="shared" ref="O90" si="26">J90/$J$8</f>
         <v>35.557143586340665</v>
       </c>
       <c r="P90" s="5">
@@ -5740,6 +7973,10 @@
         <f>AVERAGE(T89:T91)</f>
         <v>222.67680596907988</v>
       </c>
+      <c r="Y92" s="5">
+        <f>AVERAGE(Y89:Y91)</f>
+        <v>0.93618466286226487</v>
+      </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -5895,7 +8132,7 @@
         <v>5.8611111111094942</v>
       </c>
       <c r="O96" s="6">
-        <f t="shared" ref="O96:O97" si="28">J96/$J$8</f>
+        <f t="shared" ref="O96" si="28">J96/$J$8</f>
         <v>19.524271349088867</v>
       </c>
       <c r="P96" s="5">
@@ -6062,6 +8299,10 @@
         <f>AVERAGE(T95:T97)</f>
         <v>310.36583364851077</v>
       </c>
+      <c r="Y98" s="5">
+        <f>AVERAGE(Y95:Y97)</f>
+        <v>0.73839841677069395</v>
+      </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -6085,7 +8326,213 @@
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R104" s="5"/>
     </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L110" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L112" t="s">
+        <v>134</v>
+      </c>
+      <c r="M112" t="s">
+        <v>135</v>
+      </c>
+      <c r="N112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>20</v>
+      </c>
+      <c r="M113">
+        <v>1.1852718491343506</v>
+      </c>
+      <c r="N113">
+        <v>1.0098047763029492</v>
+      </c>
+    </row>
+    <row r="114" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>10</v>
+      </c>
+      <c r="M114">
+        <v>1.0254265226996797</v>
+      </c>
+      <c r="N114">
+        <v>1.0155236038593236</v>
+      </c>
+    </row>
+    <row r="115" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>7</v>
+      </c>
+      <c r="M115">
+        <v>0.91870792525183431</v>
+      </c>
+      <c r="N115">
+        <v>0.99786931211864449</v>
+      </c>
+    </row>
+    <row r="116" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>5</v>
+      </c>
+      <c r="M116">
+        <v>0.75505459052416501</v>
+      </c>
+      <c r="N116">
+        <v>0.92856129406691945</v>
+      </c>
+    </row>
+    <row r="117" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>0.62888447354536858</v>
+      </c>
+      <c r="N117">
+        <v>0.94105342966996908</v>
+      </c>
+    </row>
+    <row r="118" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>0.48651537419239177</v>
+      </c>
+      <c r="N118">
+        <v>0.87246651243586049</v>
+      </c>
+    </row>
+    <row r="119" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>0.3998247008089737</v>
+      </c>
+      <c r="N119">
+        <v>0.93618466286226487</v>
+      </c>
+    </row>
+    <row r="120" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>0.73839841677069395</v>
+      </c>
+    </row>
+    <row r="127" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L127" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L129" t="s">
+        <v>134</v>
+      </c>
+      <c r="M129" t="s">
+        <v>135</v>
+      </c>
+      <c r="N129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>20</v>
+      </c>
+      <c r="M130">
+        <v>3225</v>
+      </c>
+      <c r="N130">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="131" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>10</v>
+      </c>
+      <c r="M131">
+        <v>3157.3333333333335</v>
+      </c>
+      <c r="N131">
+        <v>3126.3333333333335</v>
+      </c>
+    </row>
+    <row r="132" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>7</v>
+      </c>
+      <c r="M132">
+        <v>3329</v>
+      </c>
+      <c r="N132">
+        <v>3001.6666666666665</v>
+      </c>
+    </row>
+    <row r="133" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>5</v>
+      </c>
+      <c r="M133">
+        <v>3031.3333333333335</v>
+      </c>
+      <c r="N133">
+        <v>3042.3333333333335</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>2875.6666666666665</v>
+      </c>
+      <c r="N134">
+        <v>2690.3333333333335</v>
+      </c>
+    </row>
+    <row r="135" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3089</v>
+      </c>
+      <c r="N135">
+        <v>2604.6666666666665</v>
+      </c>
+    </row>
+    <row r="136" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>3295.6666666666665</v>
+      </c>
+      <c r="N136">
+        <v>2376.3333333333335</v>
+      </c>
+    </row>
+    <row r="137" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>